--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 2/Aula Concatenar.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 2/Aula Concatenar.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Márcio</t>
   </si>
@@ -86,6 +87,12 @@
   </si>
   <si>
     <t>Nome, time e idade</t>
+  </si>
+  <si>
+    <t>Marcio</t>
+  </si>
+  <si>
+    <t>Roberto</t>
   </si>
 </sst>
 </file>
@@ -280,8 +287,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6255279" y="0"/>
-          <a:ext cx="1686150" cy="361629"/>
+          <a:off x="6249950" y="0"/>
+          <a:ext cx="1683486" cy="360963"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -862,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I8" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,9 +970,18 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="F9" s="5" t="str">
+        <f>CONCATENATE(B9," ",D9)</f>
+        <v>Márcio Almeida</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>B9&amp;" - "&amp;B17</f>
+        <v>Márcio - Corinthians</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>CONCATENATE(B9,", ",B17," (Idade ",25,")")</f>
+        <v>Márcio, Corinthians (Idade 25)</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -974,9 +990,18 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="F10" s="5" t="str">
+        <f t="shared" ref="F10:F14" si="0">CONCATENATE(B10," ",D10)</f>
+        <v>Jorge Silva</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" ref="H10:H14" si="1">B10&amp;" - "&amp;B18</f>
+        <v>Jorge - Santos</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" ref="J10:J14" si="2">CONCATENATE(B10,", ",B18," (Idade ",25,")")</f>
+        <v>Jorge, Santos (Idade 25)</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -985,9 +1010,18 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Ana Santos</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Ana - São Paulo</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Ana, São Paulo (Idade 25)</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -996,9 +1030,18 @@
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Maria Camargo</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Maria - Palmeiras</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Maria, Palmeiras (Idade 25)</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1007,9 +1050,18 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Pedro Viera</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>B13&amp;" - "&amp;B17</f>
+        <v>Pedro - Corinthians</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Pedro,  (Idade 25)</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -1018,9 +1070,18 @@
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Marília Prado</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>B14&amp;" - "&amp;B18</f>
+        <v>Marília - Santos</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Marília,  (Idade 25)</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1069,4 +1130,43 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="330" zoomScaleNormal="330" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE(A1," ",B1," - ","Idade ",30)</f>
+        <v>Marcio Roberto - Idade 30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;" "&amp;B2&amp;" - Idade 30"</f>
+        <v>Marcio Roberto - Idade 30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>